--- a/data/trans_orig/P20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{521E3B7D-0088-4C9F-9A29-445887575A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE6D1E1-06D7-470F-8005-4E0F79790BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DF04899-698C-4C80-9D4E-5E8B44A4FBBC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{82E0A6C8-403B-4ECF-888F-51D88040A3C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>6,55%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,45%</t>
   </si>
   <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>92,36%</t>
   </si>
   <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,730 +140,748 @@
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334807C7-CAEB-4BFB-9D72-0231401911F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E680A9-3ABF-4D5F-A104-12F3BF8BCB70}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1715,7 +1733,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -1724,13 +1742,13 @@
         <v>34840</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -1739,13 +1757,13 @@
         <v>57691</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,10 +1781,10 @@
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>418</v>
@@ -1775,13 +1793,13 @@
         <v>441572</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>923</v>
@@ -1790,10 +1808,10 @@
         <v>969184</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>66</v>
@@ -1864,13 +1882,13 @@
         <v>135426</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>242</v>
@@ -1879,13 +1897,13 @@
         <v>249341</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>378</v>
@@ -1894,13 +1912,13 @@
         <v>384767</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1915,13 +1933,13 @@
         <v>3140173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>3055</v>
@@ -1930,13 +1948,13 @@
         <v>3129857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>6132</v>
@@ -1945,13 +1963,13 @@
         <v>6270029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,7 +2025,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +2044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13D776B-7FF4-4012-BF27-BAB964D1B347}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E778CE0C-9F4B-4F47-8F98-8225E571E2F4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2043,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2150,13 +2168,13 @@
         <v>100346</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
         <v>127</v>
@@ -2165,13 +2183,13 @@
         <v>134850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>216</v>
@@ -2180,13 +2198,13 @@
         <v>235196</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2219,13 @@
         <v>874297</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
         <v>1120</v>
@@ -2216,13 +2234,13 @@
         <v>1202946</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1939</v>
@@ -2231,13 +2249,13 @@
         <v>2077244</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,13 +2323,13 @@
         <v>94221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
@@ -2320,13 +2338,13 @@
         <v>160201</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>239</v>
@@ -2335,13 +2353,13 @@
         <v>254422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2374,13 @@
         <v>1867689</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1488</v>
@@ -2371,13 +2389,13 @@
         <v>1597602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>3251</v>
@@ -2386,13 +2404,13 @@
         <v>3465290</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,13 +2478,13 @@
         <v>13621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -2475,13 +2493,13 @@
         <v>43181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -2490,13 +2508,13 @@
         <v>56802</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,13 +2529,13 @@
         <v>467560</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>372</v>
@@ -2526,13 +2544,13 @@
         <v>415450</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>799</v>
@@ -2541,13 +2559,13 @@
         <v>883010</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2633,13 @@
         <v>208188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>314</v>
@@ -2630,13 +2648,13 @@
         <v>338233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>506</v>
@@ -2645,10 +2663,10 @@
         <v>546420</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>143</v>
@@ -2666,13 +2684,13 @@
         <v>3209546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>2980</v>
@@ -2681,13 +2699,13 @@
         <v>3215997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>5989</v>
@@ -2696,13 +2714,13 @@
         <v>6425544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,7 +2776,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2777,7 +2795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C32302E-591A-4CA2-94A9-04F659E49835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A813B3-F12C-4929-BB25-E0BFCE364D16}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2794,7 +2812,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2901,13 +2919,13 @@
         <v>55393</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>71</v>
@@ -2916,13 +2934,13 @@
         <v>82392</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>128</v>
@@ -2931,13 +2949,13 @@
         <v>137784</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2970,13 @@
         <v>698954</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>821</v>
@@ -2967,13 +2985,13 @@
         <v>912268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>1526</v>
@@ -2982,13 +3000,13 @@
         <v>1611223</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3074,13 @@
         <v>82108</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>135</v>
@@ -3071,13 +3089,13 @@
         <v>143531</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>212</v>
@@ -3086,13 +3104,13 @@
         <v>225639</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3125,13 @@
         <v>1994277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>1773</v>
@@ -3122,13 +3140,13 @@
         <v>1844769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>3648</v>
@@ -3137,13 +3155,13 @@
         <v>3839046</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3229,13 @@
         <v>25980</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3226,13 +3244,13 @@
         <v>47416</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -3241,13 +3259,13 @@
         <v>73396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3280,13 @@
         <v>520906</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>481</v>
@@ -3277,13 +3295,13 @@
         <v>501724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>961</v>
@@ -3292,13 +3310,13 @@
         <v>1022630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3384,13 @@
         <v>163481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
@@ -3381,13 +3399,13 @@
         <v>273339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -3396,13 +3414,13 @@
         <v>436820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3435,13 @@
         <v>3214137</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>3075</v>
@@ -3432,13 +3450,13 @@
         <v>3258761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>6135</v>
@@ -3447,13 +3465,13 @@
         <v>6472898</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3527,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3528,7 +3546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2EAC9E-DB7F-43D8-BA32-48B391AE2621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB05E617-C718-4E00-AFEB-16A6F97C56FC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3545,7 +3563,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3652,13 +3670,13 @@
         <v>58634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>108</v>
@@ -3667,13 +3685,13 @@
         <v>60851</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -3682,13 +3700,13 @@
         <v>119485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3721,13 @@
         <v>483000</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H5" s="7">
         <v>1318</v>
@@ -3718,13 +3736,13 @@
         <v>772340</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M5" s="7">
         <v>1930</v>
@@ -3733,13 +3751,13 @@
         <v>1255339</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3825,13 @@
         <v>98666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3822,13 +3840,13 @@
         <v>126302</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>281</v>
@@ -3843,7 +3861,7 @@
         <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,28 +3876,28 @@
         <v>2063356</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>2749</v>
       </c>
       <c r="I8" s="7">
-        <v>2123218</v>
+        <v>2123219</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
         <v>4632</v>
@@ -3888,10 +3906,10 @@
         <v>4186575</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>246</v>
@@ -3921,7 +3939,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3962,13 +3980,13 @@
         <v>38341</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -3977,13 +3995,13 @@
         <v>49053</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -3992,13 +4010,13 @@
         <v>87394</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4031,13 @@
         <v>634698</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>941</v>
@@ -4028,13 +4046,13 @@
         <v>664833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>1583</v>
@@ -4043,13 +4061,13 @@
         <v>1299532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4135,13 @@
         <v>195641</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>343</v>
@@ -4132,13 +4150,13 @@
         <v>236207</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
         <v>570</v>
@@ -4147,13 +4165,13 @@
         <v>431847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,16 +4183,16 @@
         <v>3137</v>
       </c>
       <c r="D14" s="7">
-        <v>3181054</v>
+        <v>3181053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>5008</v>
@@ -4183,13 +4201,13 @@
         <v>3560391</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>8145</v>
@@ -4198,13 +4216,13 @@
         <v>6741446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,7 +4234,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4260,7 +4278,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECE6D1E1-06D7-470F-8005-4E0F79790BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A6BBF5-744A-42A6-B69C-B7DE07995EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{82E0A6C8-403B-4ECF-888F-51D88040A3C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA3F75D9-3896-404A-801A-26B50274D95A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,790 +77,814 @@
     <t>6,55%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>6,27%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>90,89%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>7,38%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
   </si>
   <si>
     <t>6,58%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>93,42%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
   </si>
   <si>
     <t>95,01%</t>
@@ -1293,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E680A9-3ABF-4D5F-A104-12F3BF8BCB70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1050962-D245-4C59-97F3-1DB3C4935A8C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1620,7 +1644,7 @@
         <v>1606</v>
       </c>
       <c r="D8" s="7">
-        <v>1648379</v>
+        <v>1648380</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1671,7 +1695,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1733,7 +1757,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -1742,13 +1766,13 @@
         <v>34840</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -1757,13 +1781,13 @@
         <v>57691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,13 +1802,13 @@
         <v>527613</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>418</v>
@@ -1793,13 +1817,13 @@
         <v>441572</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>923</v>
@@ -1808,13 +1832,13 @@
         <v>969184</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,13 +1906,13 @@
         <v>135426</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>242</v>
@@ -1897,13 +1921,13 @@
         <v>249341</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>378</v>
@@ -1912,13 +1936,13 @@
         <v>384767</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,13 +1957,13 @@
         <v>3140173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3055</v>
@@ -1948,13 +1972,13 @@
         <v>3129857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6132</v>
@@ -1963,13 +1987,13 @@
         <v>6270029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,7 +2049,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E778CE0C-9F4B-4F47-8F98-8225E571E2F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6391A53-59F4-4935-866C-F0FE62863384}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2061,7 +2085,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2168,13 +2192,13 @@
         <v>100346</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>127</v>
@@ -2183,13 +2207,13 @@
         <v>134850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>216</v>
@@ -2198,13 +2222,13 @@
         <v>235196</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,13 +2243,13 @@
         <v>874297</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H5" s="7">
         <v>1120</v>
@@ -2338,13 +2362,13 @@
         <v>160201</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>239</v>
@@ -2353,13 +2377,13 @@
         <v>254422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2398,13 @@
         <v>1867689</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>1488</v>
@@ -2389,13 +2413,13 @@
         <v>1597602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>3251</v>
@@ -2404,13 +2428,13 @@
         <v>3465290</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2502,13 @@
         <v>13621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -2493,13 +2517,13 @@
         <v>43181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -2508,13 +2532,13 @@
         <v>56802</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,13 +2553,13 @@
         <v>467560</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>372</v>
@@ -2544,13 +2568,13 @@
         <v>415450</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>799</v>
@@ -2559,13 +2583,13 @@
         <v>883010</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2657,13 @@
         <v>208188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>314</v>
@@ -2648,13 +2672,13 @@
         <v>338233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>506</v>
@@ -2663,13 +2687,13 @@
         <v>546420</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2708,13 @@
         <v>3209546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>2980</v>
@@ -2699,13 +2723,13 @@
         <v>3215997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>5989</v>
@@ -2714,13 +2738,13 @@
         <v>6425544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,7 +2800,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A813B3-F12C-4929-BB25-E0BFCE364D16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B259983F-568B-43AB-9E35-D8CEEC022DE5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2812,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2919,13 +2943,13 @@
         <v>55393</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>71</v>
@@ -2934,13 +2958,13 @@
         <v>82392</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>128</v>
@@ -2949,13 +2973,13 @@
         <v>137784</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2994,13 @@
         <v>698954</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="H5" s="7">
         <v>821</v>
@@ -3080,7 +3104,7 @@
         <v>175</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7">
         <v>135</v>
@@ -3089,13 +3113,13 @@
         <v>143531</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>212</v>
@@ -3128,10 +3152,10 @@
         <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>1773</v>
@@ -3140,10 +3164,10 @@
         <v>1844769</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>186</v>
@@ -3235,7 +3259,7 @@
         <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3244,10 +3268,10 @@
         <v>47416</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>194</v>
@@ -3262,10 +3286,10 @@
         <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,10 +3307,10 @@
         <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>481</v>
@@ -3295,13 +3319,13 @@
         <v>501724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="M11" s="7">
         <v>961</v>
@@ -3313,10 +3337,10 @@
         <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,13 +3408,13 @@
         <v>163481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
@@ -3399,13 +3423,13 @@
         <v>273339</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -3414,13 +3438,13 @@
         <v>436820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3459,13 @@
         <v>3214137</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>3075</v>
@@ -3465,13 +3489,13 @@
         <v>6472898</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,7 +3551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3546,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB05E617-C718-4E00-AFEB-16A6F97C56FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47ED1AB-AC42-4318-A1A1-88D4E48FEC4A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3563,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3670,13 +3694,13 @@
         <v>58634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>108</v>
@@ -3685,13 +3709,13 @@
         <v>60851</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -3700,13 +3724,13 @@
         <v>119485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3745,13 @@
         <v>483000</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>1318</v>
@@ -3736,13 +3760,13 @@
         <v>772340</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>1930</v>
@@ -3751,13 +3775,13 @@
         <v>1255339</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3849,13 @@
         <v>98666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3840,13 +3864,13 @@
         <v>126302</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>281</v>
@@ -3855,13 +3879,13 @@
         <v>224968</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3900,13 @@
         <v>2063356</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>2749</v>
@@ -3891,13 +3915,13 @@
         <v>2123219</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>4632</v>
@@ -3906,13 +3930,13 @@
         <v>4186575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +4004,13 @@
         <v>38341</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -3995,13 +4019,13 @@
         <v>49053</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -4010,13 +4034,13 @@
         <v>87394</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4055,13 @@
         <v>634698</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>941</v>
@@ -4046,13 +4070,13 @@
         <v>664833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>1583</v>
@@ -4061,13 +4085,13 @@
         <v>1299532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4159,13 @@
         <v>195641</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>343</v>
@@ -4150,13 +4174,13 @@
         <v>236207</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>570</v>
@@ -4165,13 +4189,13 @@
         <v>431847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4210,13 @@
         <v>3181053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>5008</v>
@@ -4201,13 +4225,13 @@
         <v>3560391</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>8145</v>
@@ -4216,13 +4240,13 @@
         <v>6741446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,7 +4302,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A6BBF5-744A-42A6-B69C-B7DE07995EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E307690-3799-477B-97F3-CCA82D88942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA3F75D9-3896-404A-801A-26B50274D95A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{844ED4DF-0E73-46DE-AC10-A1B23DC1A8E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="275">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
   </si>
   <si>
     <t>7,16%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,45%</t>
   </si>
   <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>92,36%</t>
   </si>
   <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,553 +140,541 @@
     <t>2,66%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
     <t>92,26%</t>
   </si>
   <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>93,68%</t>
   </si>
   <si>
-    <t>94,25%</t>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
@@ -695,127 +683,115 @@
     <t>10,83%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>89,17%</t>
   </si>
   <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>4,43%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>94,9%</t>
   </si>
   <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
+    <t>95,57%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>6,3%</t>
@@ -824,88 +800,70 @@
     <t>5,09%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>91,95%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>93,7%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
     <t>94,91%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>94,21%</t>
   </si>
   <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1050962-D245-4C59-97F3-1DB3C4935A8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46147B5-A401-4BB6-B16C-EE1B79FA1834}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1644,7 +1602,7 @@
         <v>1606</v>
       </c>
       <c r="D8" s="7">
-        <v>1648380</v>
+        <v>1648379</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1695,7 +1653,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1787,7 +1745,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1760,13 @@
         <v>527613</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>418</v>
@@ -1817,13 +1775,13 @@
         <v>441572</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>923</v>
@@ -1832,13 +1790,13 @@
         <v>969184</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1864,13 @@
         <v>135426</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>242</v>
@@ -1921,13 +1879,13 @@
         <v>249341</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>378</v>
@@ -1936,13 +1894,13 @@
         <v>384767</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1915,13 @@
         <v>3140173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>3055</v>
@@ -1972,13 +1930,13 @@
         <v>3129857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>6132</v>
@@ -1987,13 +1945,13 @@
         <v>6270029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,7 +2007,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6391A53-59F4-4935-866C-F0FE62863384}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60552F16-24C5-497D-939D-C7F07DE334FC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,7 +2043,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2192,13 +2150,13 @@
         <v>100346</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>127</v>
@@ -2207,13 +2165,13 @@
         <v>134850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>216</v>
@@ -2222,13 +2180,13 @@
         <v>235196</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2201,13 @@
         <v>874297</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H5" s="7">
         <v>1120</v>
@@ -2258,13 +2216,13 @@
         <v>1202946</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>1939</v>
@@ -2273,13 +2231,13 @@
         <v>2077244</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2305,13 @@
         <v>94221</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
@@ -2362,13 +2320,13 @@
         <v>160201</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>239</v>
@@ -2377,13 +2335,13 @@
         <v>254422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2356,13 @@
         <v>1867689</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>1488</v>
@@ -2413,13 +2371,13 @@
         <v>1597602</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>3251</v>
@@ -2428,13 +2386,13 @@
         <v>3465290</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2460,13 @@
         <v>13621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -2517,13 +2475,13 @@
         <v>43181</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -2532,13 +2490,13 @@
         <v>56802</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2511,13 @@
         <v>467560</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>372</v>
@@ -2568,13 +2526,13 @@
         <v>415450</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>799</v>
@@ -2583,13 +2541,13 @@
         <v>883010</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2615,13 @@
         <v>208188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>314</v>
@@ -2672,13 +2630,13 @@
         <v>338233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>506</v>
@@ -2687,13 +2645,13 @@
         <v>546420</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2666,13 @@
         <v>3209546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>2980</v>
@@ -2723,13 +2681,13 @@
         <v>3215997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>5989</v>
@@ -2738,13 +2696,13 @@
         <v>6425544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2758,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B259983F-568B-43AB-9E35-D8CEEC022DE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5DC843-7D43-467C-95F8-0E6D4F3E6A8F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2943,13 +2901,13 @@
         <v>55393</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>71</v>
@@ -2958,13 +2916,13 @@
         <v>82392</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>128</v>
@@ -2973,13 +2931,13 @@
         <v>137784</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2952,13 @@
         <v>698954</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>821</v>
@@ -3009,13 +2967,13 @@
         <v>912268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>1526</v>
@@ -3024,13 +2982,13 @@
         <v>1611223</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3056,13 @@
         <v>82108</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="H7" s="7">
         <v>135</v>
@@ -3113,13 +3071,13 @@
         <v>143531</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>212</v>
@@ -3128,13 +3086,13 @@
         <v>225639</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3107,13 @@
         <v>1994277</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>1773</v>
@@ -3164,13 +3122,13 @@
         <v>1844769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>3648</v>
@@ -3179,13 +3137,13 @@
         <v>3839046</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3211,13 @@
         <v>25980</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -3268,13 +3226,13 @@
         <v>47416</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -3283,13 +3241,13 @@
         <v>73396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3262,13 @@
         <v>520906</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>481</v>
@@ -3319,13 +3277,13 @@
         <v>501724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>961</v>
@@ -3334,13 +3292,13 @@
         <v>1022630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3366,13 @@
         <v>163481</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
         <v>251</v>
@@ -3423,13 +3381,13 @@
         <v>273339</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -3438,13 +3396,13 @@
         <v>436820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3417,13 @@
         <v>3214137</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>3075</v>
@@ -3474,13 +3432,13 @@
         <v>3258761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>6135</v>
@@ -3489,13 +3447,13 @@
         <v>6472898</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3509,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47ED1AB-AC42-4318-A1A1-88D4E48FEC4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6D3EB4-DD4A-4376-97E8-DDDDC7905ADD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3545,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,13 +3652,13 @@
         <v>58634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>108</v>
@@ -3709,13 +3667,13 @@
         <v>60851</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -3724,13 +3682,13 @@
         <v>119485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3703,13 @@
         <v>483000</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>1318</v>
@@ -3760,13 +3718,13 @@
         <v>772340</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>1930</v>
@@ -3775,13 +3733,13 @@
         <v>1255339</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3807,13 @@
         <v>98666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -3864,13 +3822,13 @@
         <v>126302</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>281</v>
@@ -3879,13 +3837,13 @@
         <v>224968</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,28 +3858,28 @@
         <v>2063356</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>2749</v>
       </c>
       <c r="I8" s="7">
-        <v>2123219</v>
+        <v>2123218</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>4632</v>
@@ -3930,13 +3888,13 @@
         <v>4186575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,7 +3921,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4004,13 +3962,13 @@
         <v>38341</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -4019,13 +3977,13 @@
         <v>49053</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -4034,13 +3992,13 @@
         <v>87394</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4013,13 @@
         <v>634698</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
         <v>941</v>
@@ -4070,13 +4028,13 @@
         <v>664833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>1583</v>
@@ -4085,13 +4043,13 @@
         <v>1299532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4117,13 @@
         <v>195641</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>343</v>
@@ -4174,13 +4132,13 @@
         <v>236207</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>570</v>
@@ -4189,13 +4147,13 @@
         <v>431847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,16 +4165,16 @@
         <v>3137</v>
       </c>
       <c r="D14" s="7">
-        <v>3181053</v>
+        <v>3181054</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>5008</v>
@@ -4225,13 +4183,13 @@
         <v>3560391</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>8145</v>
@@ -4240,13 +4198,13 @@
         <v>6741446</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4216,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4302,7 +4260,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P20-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E307690-3799-477B-97F3-CCA82D88942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF5750D-E12C-4B63-82F1-C17FFEF6E1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{844ED4DF-0E73-46DE-AC10-A1B23DC1A8E3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{129DE66E-4B68-492E-B6B8-09ACC1E27E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="273">
   <si>
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -680,190 +680,184 @@
     <t>Población que ha estado ingresada en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46147B5-A401-4BB6-B16C-EE1B79FA1834}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D460FA54-27F7-4649-88A5-DC0DC706474E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1477,7 +1471,7 @@
         <v>2158</v>
       </c>
       <c r="N5" s="7">
-        <v>2178831</v>
+        <v>2178830</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1528,7 +1522,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1602,7 +1596,7 @@
         <v>1606</v>
       </c>
       <c r="D8" s="7">
-        <v>1648379</v>
+        <v>1648380</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1653,7 +1647,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1757,7 +1751,7 @@
         <v>505</v>
       </c>
       <c r="D11" s="7">
-        <v>527613</v>
+        <v>527612</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1808,7 +1802,7 @@
         <v>526</v>
       </c>
       <c r="D12" s="7">
-        <v>550464</v>
+        <v>550463</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1927,7 +1921,7 @@
         <v>3055</v>
       </c>
       <c r="I14" s="7">
-        <v>3129857</v>
+        <v>3129856</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>77</v>
@@ -1978,7 +1972,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2026,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60552F16-24C5-497D-939D-C7F07DE334FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12638351-A3A9-48E9-9DC2-D962841E5633}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2213,7 +2207,7 @@
         <v>1120</v>
       </c>
       <c r="I5" s="7">
-        <v>1202946</v>
+        <v>1202947</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>95</v>
@@ -2264,7 +2258,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2538,7 +2532,7 @@
         <v>799</v>
       </c>
       <c r="N11" s="7">
-        <v>883010</v>
+        <v>883011</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>134</v>
@@ -2589,7 +2583,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2693,7 +2687,7 @@
         <v>5989</v>
       </c>
       <c r="N14" s="7">
-        <v>6425544</v>
+        <v>6425545</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>148</v>
@@ -2744,7 +2738,7 @@
         <v>6495</v>
       </c>
       <c r="N15" s="7">
-        <v>6971964</v>
+        <v>6971965</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2777,7 +2771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5DC843-7D43-467C-95F8-0E6D4F3E6A8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E832B41B-37C8-436F-8873-3C6E96233010}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3289,7 +3283,7 @@
         <v>961</v>
       </c>
       <c r="N11" s="7">
-        <v>1022630</v>
+        <v>1022631</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>167</v>
@@ -3340,7 +3334,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3528,7 +3522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6D3EB4-DD4A-4376-97E8-DDDDC7905ADD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE3C52F-CF74-47CB-A873-0076913BB497}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3649,7 +3643,7 @@
         <v>79</v>
       </c>
       <c r="D4" s="7">
-        <v>58634</v>
+        <v>55601</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>213</v>
@@ -3664,7 +3658,7 @@
         <v>108</v>
       </c>
       <c r="I4" s="7">
-        <v>60851</v>
+        <v>55959</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>216</v>
@@ -3679,7 +3673,7 @@
         <v>187</v>
       </c>
       <c r="N4" s="7">
-        <v>119485</v>
+        <v>111561</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>219</v>
@@ -3700,7 +3694,7 @@
         <v>612</v>
       </c>
       <c r="D5" s="7">
-        <v>483000</v>
+        <v>459337</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>222</v>
@@ -3715,7 +3709,7 @@
         <v>1318</v>
       </c>
       <c r="I5" s="7">
-        <v>772340</v>
+        <v>697209</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>225</v>
@@ -3730,7 +3724,7 @@
         <v>1930</v>
       </c>
       <c r="N5" s="7">
-        <v>1255339</v>
+        <v>1156546</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>228</v>
@@ -3751,7 +3745,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3766,7 +3760,7 @@
         <v>1426</v>
       </c>
       <c r="I6" s="7">
-        <v>833191</v>
+        <v>753168</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3781,7 +3775,7 @@
         <v>2117</v>
       </c>
       <c r="N6" s="7">
-        <v>1374824</v>
+        <v>1268107</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3804,46 +3798,46 @@
         <v>109</v>
       </c>
       <c r="D7" s="7">
-        <v>98666</v>
+        <v>94766</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
       </c>
       <c r="I7" s="7">
-        <v>126302</v>
+        <v>116455</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>281</v>
       </c>
       <c r="N7" s="7">
-        <v>224968</v>
+        <v>211221</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,43 +3849,43 @@
         <v>1883</v>
       </c>
       <c r="D8" s="7">
-        <v>2063356</v>
+        <v>2195561</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>2749</v>
       </c>
       <c r="I8" s="7">
-        <v>2123218</v>
+        <v>2121368</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M8" s="7">
         <v>4632</v>
       </c>
       <c r="N8" s="7">
-        <v>4186575</v>
+        <v>4316929</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>246</v>
@@ -3906,7 +3900,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3921,7 +3915,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3936,7 +3930,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3959,28 +3953,28 @@
         <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>38341</v>
+        <v>36988</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
       </c>
       <c r="I10" s="7">
-        <v>49053</v>
+        <v>44263</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>250</v>
@@ -3989,7 +3983,7 @@
         <v>102</v>
       </c>
       <c r="N10" s="7">
-        <v>87394</v>
+        <v>81251</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>251</v>
@@ -3998,7 +3992,7 @@
         <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,43 +4004,43 @@
         <v>642</v>
       </c>
       <c r="D11" s="7">
-        <v>634698</v>
+        <v>609635</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H11" s="7">
         <v>941</v>
       </c>
       <c r="I11" s="7">
-        <v>664833</v>
+        <v>616200</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="M11" s="7">
         <v>1583</v>
       </c>
       <c r="N11" s="7">
-        <v>1299532</v>
+        <v>1225835</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>258</v>
@@ -4061,7 +4055,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4076,7 +4070,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4091,7 +4085,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4114,7 +4108,7 @@
         <v>227</v>
       </c>
       <c r="D13" s="7">
-        <v>195641</v>
+        <v>187356</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>259</v>
@@ -4123,37 +4117,37 @@
         <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>343</v>
       </c>
       <c r="I13" s="7">
-        <v>236207</v>
+        <v>216677</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>570</v>
       </c>
       <c r="N13" s="7">
-        <v>431847</v>
+        <v>404033</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,46 +4159,46 @@
         <v>3137</v>
       </c>
       <c r="D14" s="7">
-        <v>3181054</v>
+        <v>3264533</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>5008</v>
       </c>
       <c r="I14" s="7">
-        <v>3560391</v>
+        <v>3434778</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="M14" s="7">
         <v>8145</v>
       </c>
       <c r="N14" s="7">
-        <v>6741446</v>
+        <v>6699311</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,7 +4210,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4231,7 +4225,7 @@
         <v>5351</v>
       </c>
       <c r="I15" s="7">
-        <v>3796598</v>
+        <v>3651455</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4246,7 +4240,7 @@
         <v>8715</v>
       </c>
       <c r="N15" s="7">
-        <v>7173293</v>
+        <v>7103344</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
